--- a/P0106/09_FICHAS/N2-FP-MODELO.xlsx
+++ b/P0106/09_FICHAS/N2-FP-MODELO.xlsx
@@ -1,142 +1,294 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28627"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA9C99CB-70E2-4ADE-B403-A692EF921FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="13_ncr:1_{EA9C99CB-70E2-4ADE-B403-A692EF921FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80EEDF8D-C2FA-4026-AFC0-3435325C2DA7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Código de proyecto</t>
-  </si>
-  <si>
-    <t>Código de producto</t>
-  </si>
-  <si>
-    <t>Nombre del producto</t>
-  </si>
-  <si>
-    <t>Año</t>
-  </si>
-  <si>
-    <t>Autor 1</t>
-  </si>
-  <si>
-    <t>Autor 2</t>
-  </si>
-  <si>
-    <t>Autor 3</t>
-  </si>
-  <si>
-    <t>Descripción (objeto, supuestos, resultados)</t>
-  </si>
-  <si>
-    <t>Tipo de producto</t>
-  </si>
-  <si>
-    <t>Tipo del Modelo</t>
-  </si>
-  <si>
-    <t>área de conocimiento del modelo</t>
-  </si>
-  <si>
-    <t>Se cuenta con archivos  Nativos</t>
-  </si>
-  <si>
-    <t>Archivos del Modelo</t>
-  </si>
-  <si>
-    <t>Software (Nombre y versión)</t>
-  </si>
-  <si>
-    <t>Tipo de Licencia</t>
-  </si>
-  <si>
-    <t>Nivel de consumo de recursos computacionales</t>
-  </si>
-  <si>
-    <t>Codigo de producto asociado 1</t>
-  </si>
-  <si>
-    <t>Codigo de producto asociado2</t>
-  </si>
-  <si>
-    <t>Codigo de producto asociado3</t>
-  </si>
-  <si>
-    <t>Codigo de producto asociado4</t>
-  </si>
-  <si>
-    <t>Codigo de producto asociado5</t>
-  </si>
-  <si>
-    <t>Cantidad de Escenarios simulados</t>
-  </si>
-  <si>
-    <t>Nombre Escenario 1</t>
-  </si>
-  <si>
-    <t>Descripción escenario 1</t>
-  </si>
-  <si>
-    <t>Nombre Escenario 2</t>
-  </si>
-  <si>
-    <t>Descripción escenario 2</t>
-  </si>
-  <si>
-    <t>Nombre Escenario 3</t>
-  </si>
-  <si>
-    <t>Descripción escenario 3</t>
-  </si>
-  <si>
-    <t>Nombre Escenario 4</t>
-  </si>
-  <si>
-    <t>Descripción escenario 4</t>
-  </si>
-  <si>
-    <t>Nombre escenario 5</t>
-  </si>
-  <si>
-    <t>Descripción escenario 5</t>
-  </si>
-  <si>
-    <t>Observaciones</t>
-  </si>
-  <si>
-    <t>Palabras Clave</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="77">
+  <si>
+    <t>CODIGO DE PROYECTO</t>
+  </si>
+  <si>
+    <t>CODIGO DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>NOMBRE DEL PRODUCTO</t>
+  </si>
+  <si>
+    <t>DIRECTORIO</t>
+  </si>
+  <si>
+    <t>AÑO</t>
+  </si>
+  <si>
+    <t>AUTOR 1</t>
+  </si>
+  <si>
+    <t>AUTOR 2</t>
+  </si>
+  <si>
+    <t>AUTOR 3</t>
+  </si>
+  <si>
+    <t>AUTOR 4</t>
+  </si>
+  <si>
+    <t>AUTOR 5</t>
+  </si>
+  <si>
+    <t>DESCRIPCION</t>
+  </si>
+  <si>
+    <t>TIPO DE PRODUCTO</t>
+  </si>
+  <si>
+    <t>TIPO DE MODELO</t>
+  </si>
+  <si>
+    <t>AREA DE CONOCIMIENTO DEL MODELO</t>
+  </si>
+  <si>
+    <t>SE CUENTA CON ARCHIVOS NATIVOS</t>
+  </si>
+  <si>
+    <t>SOFTWARE</t>
+  </si>
+  <si>
+    <t>TIPO DE LICENCIA</t>
+  </si>
+  <si>
+    <t>NIVEL DE CONSUMO DE RECURSOS COMPUTACIONALES</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 1</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 2</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 3</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 4</t>
+  </si>
+  <si>
+    <t>CODIGO PRODUCTO ASOCIADO 5</t>
+  </si>
+  <si>
+    <t>CANTIDAD DE ESCENARIOS SIMULADOS</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 1</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 1</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 2</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 2</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 3</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 3</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 4</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 4</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 5</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 5</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 6</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 6</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 7</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 7</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 8</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 8</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 9</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 9</t>
+  </si>
+  <si>
+    <t>NOMBRE ESCENARIO 10</t>
+  </si>
+  <si>
+    <t>DESCRIPCION ESCENARIO 10</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>PALABRAS CLAVE</t>
+  </si>
+  <si>
+    <t>P0106</t>
+  </si>
+  <si>
+    <t>495_GT_G05_25_20AGO2020</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0106/05_MODELO/WATERGEMS1/Bypass.wtg</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DE ANTIOQUIA - FACULTAD DE INGENIERIA</t>
+  </si>
+  <si>
+    <t>GOBERNACIÓN DE ANTIOQUIA</t>
+  </si>
+  <si>
+    <t>UNIDOS</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>El sistema By-Pass de la PTAR en el municipio de Nechí está diseñado como una solución de contingencia para desviar las aguas residuales domésticas en caso de que la planta de tratamiento quede fuera de operación debido a fallas en sus unidades o eventos de lluvias intensas que inunden el pozo de bombeo. Este sistema se compone de una tubería PVC-P de 6 pulgadas de diámetro que se desprende de la línea de impulsión principal del pozo de bombeo y transporta el flujo residual hacia un punto de descarga ubicado en la ribera del río Nechí. Para su adecuado funcionamiento, el sistema incorpora dos válvulas estratégicamente instaladas: una en la entrada y otra en la salida, asegurando que la descarga directa al río solo se active cuando la PTAR no esté en operación. Adicionalmente, en el punto de descarga se ha proyectado la instalación de un cabezote de descarga con una compuerta tipo charnela, garantizando un control eficiente del vertido y minimizando el impacto ambiental. 
+El modelo refencia los archivos nativos del modelo; sin embargo, no es posible visualizarlos ni ejecutar simulaciones, ya que han sido desarrollados en WaterGEMS, un software con licencia comercial.</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Numérico</t>
+  </si>
+  <si>
+    <t>Flujo a presión</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>WATERGEMS</t>
+  </si>
+  <si>
+    <t>Licenciado</t>
+  </si>
+  <si>
+    <t>Bypass</t>
+  </si>
+  <si>
+    <t>El modelo refencia los archivos nativos del modelo; sin embargo, no es posible visualizarlos ni ejecutar simulaciones, ya que han sido desarrollados en WaterGEMS, un software con licencia comercial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se trata de una modelación enfocada específicamente en la PTAR del municipio de Nechí.
+El modelo refencia los archivos nativos del modelo; sin embargo, no es posible visualizarlos ni ejecutar simulaciones, ya que han sido desarrollados en WaterGEMS, un software con licencia comercial.
+</t>
+  </si>
+  <si>
+    <t>Sistema By-Pass, PTAR, Nechí, contingencia, aguas residuales, fallas, lluvias intensas, pozo de bombeo, tubería PVC-P, 6 pulgadas, línea de impulsión, flujo residual, descarga, río Nechí, válvulas, entrada, salida, operación, cabezote de descarga, compuerta tipo charnela, control de vertido, impacto ambiental, modelo, archivos nativos, visualización, simulaciones, WaterGEMS, software, licencia comercial.</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0106/05_MODELO/WaterGEMS2\Descarga.wtg</t>
+  </si>
+  <si>
+    <t>La Estación de Bombeo de Agua Residual (EBAR) es un componente esencial en el sistema de tratamiento de aguas residuales del Corregimiento Colorado, en el municipio de Nechí. Su función principal es elevar las aguas residuales (A.R.) a una cota superior para permitir su adecuado transporte hacia la Planta de Tratamiento de Aguas Residuales (PTAR). La EBAR se ubica estratégicamente en un lote definido por la administración municipal, considerando factores como la interconexión con el MH C68 (pozo de descarga de A.R.), el suministro energético y la integración con el entorno.
+El diseño contempla un pozo de bombeo circular en concreto reforzado, impermeabilizado para evitar filtraciones y garantizar su resistencia ante inundaciones. El pozo húmedo recolecta las aguas residuales provenientes de los colectores y actúa como cámara de bombeo para su impulsión hacia la PTAR. La estación está equipada con dos bombas, cada una con capacidad para manejar el caudal de diseño (15.22 L/s), operando de manera alterna para garantizar redundancia y eficiencia. Además, el sistema debe minimizar costos operativos y asegurar que las bombas trabajen en su rango óptimo de eficiencia​.
+El modelo refencia los archivos nativos del modelo; sin embargo, no es posible visualizarlos ni ejecutar simulaciones, ya que han sido desarrollados en WaterGEMS, un software con licencia comercial.</t>
+  </si>
+  <si>
+    <t>Descarga</t>
+  </si>
+  <si>
+    <t>Estación de Bombeo de Agua Residual (EBAR), sistema de tratamiento de aguas residuales, Corregimiento Colorado, Nechí, aguas residuales (A.R.), Planta de Tratamiento de Aguas Residuales (PTAR), cota superior, transporte, lote, administración municipal, interconexión, MH C68, pozo de descarga, suministro energético, entorno, pozo de bombeo circular, concreto reforzado, impermeabilización, filtraciones, inundaciones, pozo húmedo, colectores, cámara de bombeo, impulsión, dos bombas, caudal de diseño, 15.22 L/s, redundancia, eficiencia, costos operativos, archivos nativos, visualización, simulaciones, WaterGEMS, software, licencia comercial.</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0106/05_MODELO/Bypass.net</t>
+  </si>
+  <si>
+    <t>El modelo representa una red de tuberías en flujo a presión, con un único punto de demanda en B7 (15.81 LPS) abastecido por un reservorio (V). La red consta de 7 tuberías (P-1 a P-7) de 155.28 mm de diámetro, con un caudal uniforme de 15.81 LPS, una velocidad de 0.83 m/s y pérdidas de carga constantes de 4.00 m/km. La presión en los nodos varía entre 1.87 m en B1 y 3.53 m en B2, lo que indica un sistema de baja presión que podría requerir ajustes para mejorar el servicio. La carga hidráulica máxima se encuentra en el reservorio (44.00 m) y la mínima en B7 (43.28 m). Todas las tuberías están abiertas, lo que sugiere un diseño homogéneo sin restricciones de flujo. Se recomienda evaluar si la presión en B1 (1.87 m) es suficiente para el abastecimiento o si se requiere una bomba o aumento de diámetro en las tuberías. Además, podría analizarse la eficiencia del sistema en expansiones futuras y realizar un estudio de calidad del agua para evitar problemas de envejecimiento en la red.</t>
+  </si>
+  <si>
+    <t>EPANET</t>
+  </si>
+  <si>
+    <t>Libre</t>
+  </si>
+  <si>
+    <t>5 segundos</t>
+  </si>
+  <si>
+    <t>Se trata de una modelación enfocada específicamente en la PTAR del municipio de Nechí.</t>
+  </si>
+  <si>
+    <t>Red de tuberías, flujo a presión, punto de demanda, reservorio, tuberías, caudal uniforme, velocidad, pérdidas de carga, presión, nodos, baja presión, carga hidráulica, diseño homogéneo, restricciones de flujo, abastecimiento, bomba, aumento de diámetro, eficiencia del sistema, expansiones futuras, calidad del agua, envejecimiento de la red.</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0106/05_MODELO/Descarga.net</t>
+  </si>
+  <si>
+    <t>El modelo representa una red de tuberías en flujo a presión, con un único punto de demanda en D4 (15.81 LPS) abastecido por un reservorio (SALIDAFAFA). La red consta de 4 tuberías (T1 a T4) de 155.28 mm de diámetro, con un caudal uniforme de 15.81 LPS, una velocidad de 0.83 m/s y pérdidas de carga constantes de 4.00 m/km. La presión en los nodos varía entre 4.20 m en D1 y 3.63 m en D4, mientras que la carga hidráulica oscila entre 44.70 m en el reservorio y 44.04 m en D4. Todas las tuberías están abiertas, lo que sugiere un diseño homogéneo sin restricciones de flujo. Se observa que la red opera bajo un único escenario de simulación denominado "Base", sin variaciones en las condiciones de operación. Aunque el sistema parece funcional, sería recomendable evaluar si la presión en los nodos finales es suficiente para un abastecimiento eficiente y si se requieren ajustes en el diseño para optimizar el rendimiento de la red.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -160,16 +312,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -177,9 +329,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,15 +614,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH4"/>
+  <dimension ref="A1:AT5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AH7" sqref="AH7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,114 +725,594 @@
       <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:46">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="1"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
+      <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:46">
+      <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="1"/>
-      <c r="AH3" s="1"/>
+      <c r="C3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:46">
+      <c r="A4" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="1"/>
+      <c r="C4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46">
+      <c r="A5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2020</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="X5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>74</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
